--- a/tut06/output/2001MM24.xlsx
+++ b/tut06/output/2001MM24.xlsx
@@ -25,7 +25,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Total Atd Count</t>
+    <t>Total Attendance Count</t>
   </si>
   <si>
     <t>Real</t>
